--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2859.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2859.xlsx
@@ -354,7 +354,7 @@
         <v>2.276757354784118</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.325388612103743</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2859.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2859.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.190235701339985</v>
+        <v>1.28521728515625</v>
       </c>
       <c r="B1">
-        <v>2.276757354784118</v>
+        <v>1.459593415260315</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.732053756713867</v>
       </c>
       <c r="D1">
-        <v>2.325388612103743</v>
+        <v>3.510660171508789</v>
       </c>
       <c r="E1">
-        <v>1.214594451309344</v>
+        <v>1.016089677810669</v>
       </c>
     </row>
   </sheetData>
